--- a/biology/Histoire de la zoologie et de la botanique/René_Paul_Raymond_Capuron/René_Paul_Raymond_Capuron.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/René_Paul_Raymond_Capuron/René_Paul_Raymond_Capuron.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ren%C3%A9_Paul_Raymond_Capuron</t>
+          <t>René_Paul_Raymond_Capuron</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">René Paul Raymond Capuron est un botaniste forestier français, né le 20 octobre 1921 et mort le 24 août 1971[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">René Paul Raymond Capuron est un botaniste forestier français, né le 20 octobre 1921 et mort le 24 août 1971.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ren%C3%A9_Paul_Raymond_Capuron</t>
+          <t>René_Paul_Raymond_Capuron</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Chef de la division de botanique du Centre technique forestier tropical de Madagascar, Capuron a réalisé de nombreuses recherches sur la flore de l'île. Parmi ses découvertes, il faut retenir :
 Mauloutchia arillata, une nouvelle espèce de la famille des Myristicaceae.
-Takhtajania perrieri (Winteraceae) : Capuron est le premier à retrouver cette plante qui avait été découverte par Eugène Henri Perrier de La Bâthie en 1909[2].</t>
+Takhtajania perrieri (Winteraceae) : Capuron est le premier à retrouver cette plante qui avait été découverte par Eugène Henri Perrier de La Bâthie en 1909.</t>
         </is>
       </c>
     </row>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ren%C3%A9_Paul_Raymond_Capuron</t>
+          <t>René_Paul_Raymond_Capuron</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Essai d'introduction à l'étude de la flore forestière de Madagascar, Tananarive, Inspection Générale des Eaux &amp; Forêts, 1957, 125 p.
 Rhopalocarpacées, dans : Flore de Madagascar et des Comores, vol. 127, Paris, 1963, 41 p.
